--- a/bib_data/1990-2005/pre_2006_2 [Nodes]_cluster_totals.xlsx
+++ b/bib_data/1990-2005/pre_2006_2 [Nodes]_cluster_totals.xlsx
@@ -1176,50 +1176,50 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F38">
-        <v>100</v>
+        <v>92.85714285714286</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>7.142857142857142</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1399,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -1416,10 +1416,10 @@
         <v>7</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F50">
         <v>50</v>
@@ -1427,42 +1427,42 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F51">
-        <v>18.75</v>
+        <v>22.22222222222222</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F52">
-        <v>18.75</v>
+        <v>16.66666666666666</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1479,10 +1479,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F53">
-        <v>6.25</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1499,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54">
-        <v>6.25</v>
+        <v>5.555555555555555</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F61">
         <v>0</v>
